--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
@@ -481,7 +481,9 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
@@ -509,17 +511,19 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -529,26 +533,30 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -558,7 +566,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
@@ -566,7 +576,9 @@
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
@@ -581,17 +593,21 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
@@ -482,19 +482,17 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -510,20 +508,18 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -534,30 +530,26 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -566,25 +558,21 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -594,20 +582,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>4</v>
       </c>
@@ -616,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
@@ -482,17 +482,19 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +510,9 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
@@ -530,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -541,38 +545,50 @@
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -587,20 +603,26 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
@@ -517,13 +517,13 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -534,60 +534,60 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -598,31 +598,31 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +511,19 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -534,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -552,30 +552,30 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -598,31 +598,31 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-nao_federado.xlsx
@@ -487,14 +487,12 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -511,20 +509,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -534,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -545,31 +541,23 @@
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -580,15 +568,11 @@
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -597,33 +581,27 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
